--- a/data_352.xlsx
+++ b/data_352.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Project\macro\ict_web_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA0A161-32C5-4349-AB14-7BDB3A1964D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E38CB6-D791-4170-BB63-EC554347C4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{EDC1EF7B-2AB0-46BA-AA57-C6DB9ECD74C4}"/>
   </bookViews>
@@ -26,6 +26,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -4005,14 +4014,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BEB7CFA-1275-4BC2-9E6D-030C9909ACE9}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:U351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
+    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="23.125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.25" bestFit="1" customWidth="1"/>
@@ -4141,7 +4152,7 @@
       </c>
       <c r="U2" s="3"/>
     </row>
-    <row r="3" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="3" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -4204,7 +4215,7 @@
         <v>1341110036992</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="4" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -4265,7 +4276,7 @@
         <v>2701220059996</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="5" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -4330,7 +4341,7 @@
         <v>1101112962028</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="6" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -4578,7 +4589,7 @@
         <v>1101111999064</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="10" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -4832,7 +4843,7 @@
         <v>1401110011243</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="14" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -4891,7 +4902,7 @@
         <v>1101111624421</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="15" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -5194,7 +5205,7 @@
         <v>1101110542484</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="20" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -5312,7 +5323,7 @@
         <v>1311110416816</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="22" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -5375,7 +5386,7 @@
         <v>1101114553536</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="23" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -5499,7 +5510,7 @@
         <v>1101113566936</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="25" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -5621,7 +5632,7 @@
         <v>1101114872803</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="27" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -5802,7 +5813,7 @@
         <v>1201110161042</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="30" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
@@ -6402,7 +6413,7 @@
         <v>1101115245942</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="40" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
@@ -6461,7 +6472,7 @@
         <v>1101110576425</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="41" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
@@ -6587,7 +6598,7 @@
         <v>1101111230484</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="43" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
@@ -6703,7 +6714,7 @@
         <v>1601110319578</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="45" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
@@ -6943,7 +6954,7 @@
         <v>1352110008790</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="49" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A49" s="2" t="s">
         <v>49</v>
       </c>
@@ -7000,7 +7011,7 @@
       </c>
       <c r="U49" s="3"/>
     </row>
-    <row r="50" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="50" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A50" s="2" t="s">
         <v>50</v>
       </c>
@@ -7120,7 +7131,7 @@
         <v>1101113671579</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="52" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A52" s="2" t="s">
         <v>52</v>
       </c>
@@ -7537,7 +7548,7 @@
       </c>
       <c r="U58" s="3"/>
     </row>
-    <row r="59" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="59" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A59" s="2" t="s">
         <v>59</v>
       </c>
@@ -7657,7 +7668,7 @@
         <v>1101114340818</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="61" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A61" s="2" t="s">
         <v>61</v>
       </c>
@@ -7718,7 +7729,7 @@
       </c>
       <c r="U61" s="3"/>
     </row>
-    <row r="62" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="62" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A62" s="2" t="s">
         <v>62</v>
       </c>
@@ -7954,7 +7965,7 @@
       </c>
       <c r="U65" s="3"/>
     </row>
-    <row r="66" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="66" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A66" s="2" t="s">
         <v>66</v>
       </c>
@@ -8055,7 +8066,7 @@
         <v>0</v>
       </c>
       <c r="O67" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P67" s="10">
         <v>5</v>
@@ -8074,7 +8085,7 @@
         <v>1101113436139</v>
       </c>
     </row>
-    <row r="68" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="68" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A68" s="2" t="s">
         <v>68</v>
       </c>
@@ -8137,7 +8148,7 @@
         <v>1101113121756</v>
       </c>
     </row>
-    <row r="69" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="69" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A69" s="2" t="s">
         <v>69</v>
       </c>
@@ -8196,7 +8207,7 @@
         <v>1101117115937</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="70" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A70" s="2" t="s">
         <v>70</v>
       </c>
@@ -8318,7 +8329,7 @@
         <v>1101116304292</v>
       </c>
     </row>
-    <row r="72" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="72" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A72" s="2" t="s">
         <v>72</v>
       </c>
@@ -8739,7 +8750,7 @@
         <v>1101114992726</v>
       </c>
     </row>
-    <row r="79" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="79" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A79" s="2" t="s">
         <v>79</v>
       </c>
@@ -8798,7 +8809,7 @@
         <v>1357110169964</v>
       </c>
     </row>
-    <row r="80" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="80" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A80" s="2" t="s">
         <v>80</v>
       </c>
@@ -8857,7 +8868,7 @@
         <v>1311110431252</v>
       </c>
     </row>
-    <row r="81" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="81" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A81" s="2" t="s">
         <v>81</v>
       </c>
@@ -8916,7 +8927,7 @@
         <v>1101112524183</v>
       </c>
     </row>
-    <row r="82" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="82" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A82" s="2" t="s">
         <v>82</v>
       </c>
@@ -9034,7 +9045,7 @@
         <v>1101112251760</v>
       </c>
     </row>
-    <row r="84" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="84" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A84" s="2" t="s">
         <v>84</v>
       </c>
@@ -9148,7 +9159,7 @@
       </c>
       <c r="U85" s="3"/>
     </row>
-    <row r="86" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="86" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A86" s="2" t="s">
         <v>86</v>
       </c>
@@ -9207,7 +9218,7 @@
         <v>1101114948860</v>
       </c>
     </row>
-    <row r="87" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="87" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A87" s="2" t="s">
         <v>87</v>
       </c>
@@ -9321,7 +9332,7 @@
       </c>
       <c r="U88" s="3"/>
     </row>
-    <row r="89" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="89" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A89" s="2" t="s">
         <v>89</v>
       </c>
@@ -9441,7 +9452,7 @@
         <v>2801110071511</v>
       </c>
     </row>
-    <row r="91" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="91" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A91" s="2" t="s">
         <v>91</v>
       </c>
@@ -9498,7 +9509,7 @@
       </c>
       <c r="U91" s="3"/>
     </row>
-    <row r="92" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="92" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A92" s="2" t="s">
         <v>92</v>
       </c>
@@ -9612,7 +9623,7 @@
       </c>
       <c r="U93" s="3"/>
     </row>
-    <row r="94" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="94" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A94" s="2" t="s">
         <v>94</v>
       </c>
@@ -9669,7 +9680,7 @@
       </c>
       <c r="U94" s="3"/>
     </row>
-    <row r="95" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="95" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A95" s="2" t="s">
         <v>95</v>
       </c>
@@ -9726,7 +9737,7 @@
       </c>
       <c r="U95" s="3"/>
     </row>
-    <row r="96" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="96" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A96" s="2" t="s">
         <v>96</v>
       </c>
@@ -9783,7 +9794,7 @@
       </c>
       <c r="U96" s="3"/>
     </row>
-    <row r="97" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="97" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A97" s="2" t="s">
         <v>97</v>
       </c>
@@ -9897,7 +9908,7 @@
       </c>
       <c r="U98" s="3"/>
     </row>
-    <row r="99" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="99" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A99" s="2" t="s">
         <v>99</v>
       </c>
@@ -10389,7 +10400,7 @@
         <v>1101115780500</v>
       </c>
     </row>
-    <row r="107" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="107" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A107" s="2" t="s">
         <v>107</v>
       </c>
@@ -10448,7 +10459,7 @@
         <v>1101114959320</v>
       </c>
     </row>
-    <row r="108" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="108" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A108" s="2" t="s">
         <v>108</v>
       </c>
@@ -10511,7 +10522,7 @@
         <v>1101113820499</v>
       </c>
     </row>
-    <row r="109" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="109" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A109" s="2" t="s">
         <v>109</v>
       </c>
@@ -10625,7 +10636,7 @@
       </c>
       <c r="U110" s="5"/>
     </row>
-    <row r="111" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="111" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A111" s="2" t="s">
         <v>111</v>
       </c>
@@ -10914,7 +10925,7 @@
         <v>1101110803018</v>
       </c>
     </row>
-    <row r="116" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="116" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A116" s="2" t="s">
         <v>116</v>
       </c>
@@ -11101,7 +11112,7 @@
         <v>1101114138784</v>
       </c>
     </row>
-    <row r="119" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="119" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A119" s="2" t="s">
         <v>119</v>
       </c>
@@ -11347,7 +11358,7 @@
         <v>1101112610841</v>
       </c>
     </row>
-    <row r="123" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="123" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A123" s="2" t="s">
         <v>123</v>
       </c>
@@ -11530,7 +11541,7 @@
         <v>1101116417912</v>
       </c>
     </row>
-    <row r="126" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="126" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A126" s="2" t="s">
         <v>126</v>
       </c>
@@ -12120,7 +12131,7 @@
         <v>1101116432374</v>
       </c>
     </row>
-    <row r="136" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="136" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A136" s="2" t="s">
         <v>136</v>
       </c>
@@ -12179,7 +12190,7 @@
         <v>1349110060177</v>
       </c>
     </row>
-    <row r="137" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="137" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A137" s="2" t="s">
         <v>137</v>
       </c>
@@ -12413,7 +12424,7 @@
       </c>
       <c r="U140" s="3"/>
     </row>
-    <row r="141" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="141" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A141" s="2" t="s">
         <v>141</v>
       </c>
@@ -12640,7 +12651,7 @@
         <v>1</v>
       </c>
       <c r="O144" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P144" s="10">
         <v>4</v>
@@ -13015,7 +13026,7 @@
         <v>1101113551143</v>
       </c>
     </row>
-    <row r="151" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="151" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A151" s="2" t="s">
         <v>151</v>
       </c>
@@ -13072,7 +13083,7 @@
       </c>
       <c r="U151" s="3"/>
     </row>
-    <row r="152" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="152" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A152" s="2" t="s">
         <v>152</v>
       </c>
@@ -13314,7 +13325,7 @@
         <v>1701110118051</v>
       </c>
     </row>
-    <row r="156" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="156" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A156" s="2" t="s">
         <v>156</v>
       </c>
@@ -13373,7 +13384,7 @@
       </c>
       <c r="U156" s="3"/>
     </row>
-    <row r="157" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="157" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A157" s="2" t="s">
         <v>157</v>
       </c>
@@ -13554,7 +13565,7 @@
         <v>1101112065393</v>
       </c>
     </row>
-    <row r="160" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="160" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A160" s="2" t="s">
         <v>160</v>
       </c>
@@ -13737,7 +13748,7 @@
         <v>1101114867333</v>
       </c>
     </row>
-    <row r="163" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="163" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A163" s="2" t="s">
         <v>163</v>
       </c>
@@ -13851,7 +13862,7 @@
       </c>
       <c r="U164" s="3"/>
     </row>
-    <row r="165" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="165" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A165" s="2" t="s">
         <v>165</v>
       </c>
@@ -13967,7 +13978,7 @@
         <v>1101114234566</v>
       </c>
     </row>
-    <row r="167" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="167" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A167" s="2" t="s">
         <v>167</v>
       </c>
@@ -14087,7 +14098,7 @@
       </c>
       <c r="U168" s="5"/>
     </row>
-    <row r="169" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="169" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A169" s="2" t="s">
         <v>169</v>
       </c>
@@ -14146,7 +14157,7 @@
         <v>2062110019147</v>
       </c>
     </row>
-    <row r="170" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="170" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A170" s="2" t="s">
         <v>170</v>
       </c>
@@ -14203,7 +14214,7 @@
       </c>
       <c r="U170" s="5"/>
     </row>
-    <row r="171" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="171" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A171" s="2" t="s">
         <v>171</v>
       </c>
@@ -14262,7 +14273,7 @@
         <v>1101115383130</v>
       </c>
     </row>
-    <row r="172" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="172" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A172" s="2" t="s">
         <v>172</v>
       </c>
@@ -14439,7 +14450,7 @@
         <v>1101113334101</v>
       </c>
     </row>
-    <row r="175" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="175" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A175" s="2" t="s">
         <v>175</v>
       </c>
@@ -14723,7 +14734,7 @@
         <v>2</v>
       </c>
       <c r="O179" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P179" s="12">
         <v>5</v>
@@ -14860,7 +14871,7 @@
         <v>1101114166991</v>
       </c>
     </row>
-    <row r="182" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="182" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A182" s="2" t="s">
         <v>182</v>
       </c>
@@ -14917,7 +14928,7 @@
       </c>
       <c r="U182" s="5"/>
     </row>
-    <row r="183" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="183" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A183" s="2" t="s">
         <v>183</v>
       </c>
@@ -15094,7 +15105,7 @@
         <v>1101114508002</v>
       </c>
     </row>
-    <row r="186" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="186" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A186" s="2" t="s">
         <v>186</v>
       </c>
@@ -15271,7 +15282,7 @@
         <v>1211110197682</v>
       </c>
     </row>
-    <row r="189" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="189" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A189" s="2" t="s">
         <v>189</v>
       </c>
@@ -15448,7 +15459,7 @@
         <v>1101115862423</v>
       </c>
     </row>
-    <row r="192" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="192" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A192" s="2" t="s">
         <v>192</v>
       </c>
@@ -15566,7 +15577,7 @@
         <v>1601110119572</v>
       </c>
     </row>
-    <row r="194" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="194" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A194" s="2" t="s">
         <v>194</v>
       </c>
@@ -15625,7 +15636,7 @@
         <v>1101111606742</v>
       </c>
     </row>
-    <row r="195" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="195" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A195" s="2" t="s">
         <v>195</v>
       </c>
@@ -15812,7 +15823,7 @@
         <v>1101112158669</v>
       </c>
     </row>
-    <row r="198" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="198" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A198" s="2" t="s">
         <v>198</v>
       </c>
@@ -16058,7 +16069,7 @@
         <v>1311110332864</v>
       </c>
     </row>
-    <row r="202" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="202" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A202" s="2" t="s">
         <v>202</v>
       </c>
@@ -16300,7 +16311,7 @@
         <v>1101111136640</v>
       </c>
     </row>
-    <row r="206" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="206" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A206" s="2" t="s">
         <v>206</v>
       </c>
@@ -16357,7 +16368,7 @@
       </c>
       <c r="U206" s="5"/>
     </row>
-    <row r="207" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="207" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A207" s="2" t="s">
         <v>207</v>
       </c>
@@ -16414,7 +16425,7 @@
       </c>
       <c r="U207" s="5"/>
     </row>
-    <row r="208" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="208" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A208" s="2" t="s">
         <v>208</v>
       </c>
@@ -16471,7 +16482,7 @@
       </c>
       <c r="U208" s="5"/>
     </row>
-    <row r="209" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="209" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A209" s="2" t="s">
         <v>209</v>
       </c>
@@ -16528,7 +16539,7 @@
       </c>
       <c r="U209" s="5"/>
     </row>
-    <row r="210" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="210" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A210" s="2" t="s">
         <v>210</v>
       </c>
@@ -16585,7 +16596,7 @@
       </c>
       <c r="U210" s="5"/>
     </row>
-    <row r="211" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="211" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A211" s="2" t="s">
         <v>211</v>
       </c>
@@ -16642,7 +16653,7 @@
       </c>
       <c r="U211" s="5"/>
     </row>
-    <row r="212" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="212" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A212" s="2" t="s">
         <v>212</v>
       </c>
@@ -16813,7 +16824,7 @@
       </c>
       <c r="U214" s="5"/>
     </row>
-    <row r="215" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="215" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A215" s="2" t="s">
         <v>215</v>
       </c>
@@ -16870,7 +16881,7 @@
       </c>
       <c r="U215" s="5"/>
     </row>
-    <row r="216" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="216" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A216" s="2" t="s">
         <v>216</v>
       </c>
@@ -17155,7 +17166,7 @@
       </c>
       <c r="U220" s="5"/>
     </row>
-    <row r="221" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="221" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A221" s="2" t="s">
         <v>221</v>
       </c>
@@ -17214,7 +17225,7 @@
         <v>1101114765826</v>
       </c>
     </row>
-    <row r="222" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="222" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A222" s="2" t="s">
         <v>222</v>
       </c>
@@ -17273,7 +17284,7 @@
         <v>1301110070689</v>
       </c>
     </row>
-    <row r="223" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="223" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A223" s="2" t="s">
         <v>223</v>
       </c>
@@ -17505,7 +17516,7 @@
       </c>
       <c r="U226" s="5"/>
     </row>
-    <row r="227" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="227" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A227" s="2" t="s">
         <v>227</v>
       </c>
@@ -17621,7 +17632,7 @@
       </c>
       <c r="U228" s="5"/>
     </row>
-    <row r="229" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="229" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A229" s="2" t="s">
         <v>229</v>
       </c>
@@ -17678,7 +17689,7 @@
       </c>
       <c r="U229" s="5"/>
     </row>
-    <row r="230" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="230" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A230" s="2" t="s">
         <v>230</v>
       </c>
@@ -17914,7 +17925,7 @@
         <v>1601110473316</v>
       </c>
     </row>
-    <row r="234" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="234" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A234" s="2" t="s">
         <v>234</v>
       </c>
@@ -17973,7 +17984,7 @@
         <v>1101116497295</v>
       </c>
     </row>
-    <row r="235" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="235" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A235" s="2" t="s">
         <v>235</v>
       </c>
@@ -18502,7 +18513,7 @@
       </c>
       <c r="U243" s="5"/>
     </row>
-    <row r="244" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="244" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A244" s="2" t="s">
         <v>244</v>
       </c>
@@ -18622,7 +18633,7 @@
         <v>1101112332560</v>
       </c>
     </row>
-    <row r="246" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="246" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A246" s="2" t="s">
         <v>246</v>
       </c>
@@ -18799,7 +18810,7 @@
         <v>1201110650269</v>
       </c>
     </row>
-    <row r="249" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="249" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A249" s="2" t="s">
         <v>249</v>
       </c>
@@ -19157,7 +19168,7 @@
         <v>1341110106422</v>
       </c>
     </row>
-    <row r="255" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="255" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A255" s="2" t="s">
         <v>255</v>
       </c>
@@ -19281,7 +19292,7 @@
         <v>1101114965450</v>
       </c>
     </row>
-    <row r="257" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="257" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A257" s="2" t="s">
         <v>257</v>
       </c>
@@ -19397,7 +19408,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="259" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="259" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A259" s="2" t="s">
         <v>259</v>
       </c>
@@ -19456,7 +19467,7 @@
         <v>1101115345750</v>
       </c>
     </row>
-    <row r="260" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="260" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A260" s="2" t="s">
         <v>260</v>
       </c>
@@ -19637,7 +19648,7 @@
         <v>1101114788539</v>
       </c>
     </row>
-    <row r="263" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="263" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A263" s="2" t="s">
         <v>263</v>
       </c>
@@ -19755,7 +19766,7 @@
         <v>1101115216034</v>
       </c>
     </row>
-    <row r="265" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="265" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A265" s="2" t="s">
         <v>265</v>
       </c>
@@ -19993,7 +20004,7 @@
         <v>1101115581073</v>
       </c>
     </row>
-    <row r="269" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="269" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A269" s="2" t="s">
         <v>269</v>
       </c>
@@ -20109,7 +20120,7 @@
         <v>1101114266527</v>
       </c>
     </row>
-    <row r="271" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="271" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A271" s="2" t="s">
         <v>271</v>
       </c>
@@ -20168,7 +20179,7 @@
         <v>1101114127711</v>
       </c>
     </row>
-    <row r="272" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="272" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A272" s="2" t="s">
         <v>272</v>
       </c>
@@ -20286,7 +20297,7 @@
         <v>1601110358295</v>
       </c>
     </row>
-    <row r="274" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="274" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A274" s="2" t="s">
         <v>274</v>
       </c>
@@ -20404,7 +20415,7 @@
         <v>1801110714295</v>
       </c>
     </row>
-    <row r="276" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="276" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A276" s="2" t="s">
         <v>276</v>
       </c>
@@ -20467,7 +20478,7 @@
         <v>1901110069226</v>
       </c>
     </row>
-    <row r="277" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="277" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A277" s="2" t="s">
         <v>277</v>
       </c>
@@ -20524,7 +20535,7 @@
       </c>
       <c r="U277" s="5"/>
     </row>
-    <row r="278" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="278" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A278" s="2" t="s">
         <v>278</v>
       </c>
@@ -20640,7 +20651,7 @@
         <v>1101113636929</v>
       </c>
     </row>
-    <row r="280" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="280" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A280" s="2" t="s">
         <v>280</v>
       </c>
@@ -20697,7 +20708,7 @@
       </c>
       <c r="U280" s="5"/>
     </row>
-    <row r="281" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="281" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A281" s="2" t="s">
         <v>281</v>
       </c>
@@ -20815,7 +20826,7 @@
         <v>1701110598451</v>
       </c>
     </row>
-    <row r="283" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="283" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A283" s="2" t="s">
         <v>283</v>
       </c>
@@ -20876,7 +20887,7 @@
         <v>1101112460931</v>
       </c>
     </row>
-    <row r="284" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="284" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A284" s="2" t="s">
         <v>284</v>
       </c>
@@ -20935,7 +20946,7 @@
         <v>1101111617814</v>
       </c>
     </row>
-    <row r="285" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="285" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A285" s="2" t="s">
         <v>285</v>
       </c>
@@ -20998,7 +21009,7 @@
         <v>1101112171314</v>
       </c>
     </row>
-    <row r="286" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="286" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A286" s="2" t="s">
         <v>286</v>
       </c>
@@ -21055,7 +21066,7 @@
       </c>
       <c r="U286" s="5"/>
     </row>
-    <row r="287" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="287" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A287" s="2" t="s">
         <v>287</v>
       </c>
@@ -21181,7 +21192,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="289" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="289" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A289" s="2" t="s">
         <v>289</v>
       </c>
@@ -21537,7 +21548,7 @@
       </c>
       <c r="U294" s="5"/>
     </row>
-    <row r="295" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="295" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A295" s="2" t="s">
         <v>295</v>
       </c>
@@ -21901,7 +21912,7 @@
       </c>
       <c r="U300" s="5"/>
     </row>
-    <row r="301" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="301" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A301" s="2" t="s">
         <v>301</v>
       </c>
@@ -22385,7 +22396,7 @@
         <v>1701110287963</v>
       </c>
     </row>
-    <row r="309" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="309" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A309" s="2" t="s">
         <v>309</v>
       </c>
@@ -22741,7 +22752,7 @@
         <v>2001110372501</v>
       </c>
     </row>
-    <row r="315" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="315" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A315" s="2" t="s">
         <v>315</v>
       </c>
@@ -22857,7 +22868,7 @@
         <v>1101116204567</v>
       </c>
     </row>
-    <row r="317" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="317" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A317" s="2" t="s">
         <v>317</v>
       </c>
@@ -22916,7 +22927,7 @@
         <v>1101113381417</v>
       </c>
     </row>
-    <row r="318" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="318" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A318" s="2" t="s">
         <v>318</v>
       </c>
@@ -23099,7 +23110,7 @@
         <v>1101112559536</v>
       </c>
     </row>
-    <row r="321" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="321" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A321" s="2" t="s">
         <v>321</v>
       </c>
@@ -23158,7 +23169,7 @@
         <v>1101113407635</v>
       </c>
     </row>
-    <row r="322" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="322" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A322" s="2" t="s">
         <v>322</v>
       </c>
@@ -23278,7 +23289,7 @@
       </c>
       <c r="U323" s="5"/>
     </row>
-    <row r="324" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="324" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A324" s="2" t="s">
         <v>324</v>
       </c>
@@ -23453,7 +23464,7 @@
       </c>
       <c r="U326" s="5"/>
     </row>
-    <row r="327" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="327" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A327" s="2" t="s">
         <v>327</v>
       </c>
@@ -23512,7 +23523,7 @@
         <v>1101116241965</v>
       </c>
     </row>
-    <row r="328" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="328" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A328" s="2" t="s">
         <v>328</v>
       </c>
@@ -23630,7 +23641,7 @@
         <v>2062110030416</v>
       </c>
     </row>
-    <row r="330" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="330" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A330" s="2" t="s">
         <v>330</v>
       </c>
@@ -23807,7 +23818,7 @@
         <v>1942110104860</v>
       </c>
     </row>
-    <row r="333" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="333" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A333" s="2" t="s">
         <v>333</v>
       </c>
@@ -24106,7 +24117,7 @@
         <v>1101114285288</v>
       </c>
     </row>
-    <row r="338" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="338" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A338" s="2" t="s">
         <v>338</v>
       </c>
@@ -24293,7 +24304,7 @@
         <v>1101114157057</v>
       </c>
     </row>
-    <row r="341" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="341" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A341" s="2" t="s">
         <v>341</v>
       </c>
@@ -24651,7 +24662,7 @@
         <v>2101110027188</v>
       </c>
     </row>
-    <row r="347" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="347" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A347" s="2" t="s">
         <v>347</v>
       </c>
@@ -24826,7 +24837,7 @@
         <v>1501110121256</v>
       </c>
     </row>
-    <row r="350" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="350" spans="1:21" ht="18" hidden="1" customHeight="1" thickBot="1">
       <c r="A350" s="2" t="s">
         <v>350</v>
       </c>
@@ -24951,7 +24962,49 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U351" xr:uid="{3BEB7CFA-1275-4BC2-9E6D-030C9909ACE9}"/>
+  <autoFilter ref="A1:U351" xr:uid="{3BEB7CFA-1275-4BC2-9E6D-030C9909ACE9}">
+    <filterColumn colId="14">
+      <filters>
+        <filter val="1"/>
+        <filter val="10"/>
+        <filter val="11"/>
+        <filter val="12"/>
+        <filter val="13"/>
+        <filter val="15"/>
+        <filter val="150"/>
+        <filter val="16"/>
+        <filter val="17"/>
+        <filter val="18"/>
+        <filter val="2"/>
+        <filter val="20"/>
+        <filter val="21"/>
+        <filter val="22"/>
+        <filter val="23"/>
+        <filter val="27"/>
+        <filter val="28"/>
+        <filter val="29"/>
+        <filter val="3"/>
+        <filter val="30"/>
+        <filter val="35"/>
+        <filter val="37"/>
+        <filter val="4"/>
+        <filter val="40"/>
+        <filter val="400"/>
+        <filter val="45"/>
+        <filter val="5"/>
+        <filter val="50"/>
+        <filter val="55"/>
+        <filter val="57"/>
+        <filter val="6"/>
+        <filter val="62"/>
+        <filter val="64"/>
+        <filter val="7"/>
+        <filter val="70"/>
+        <filter val="8"/>
+        <filter val="9"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{138679EB-9F43-446C-B5ED-0F88E2C403D3}"/>
@@ -47060,5 +47113,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data_352.xlsx
+++ b/data_352.xlsx
@@ -8,19 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Project\macro\ict_web_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5721C9-981A-49C9-91A5-C431C45620A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A0ACEE-4C60-4ED5-8784-B1B417C2C6DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{EDC1EF7B-2AB0-46BA-AA57-C6DB9ECD74C4}"/>
   </bookViews>
   <sheets>
-    <sheet name="생산직" sheetId="1" r:id="rId1"/>
-    <sheet name="사용한것" sheetId="2" r:id="rId2"/>
-    <sheet name="전체리스트" sheetId="3" r:id="rId3"/>
-    <sheet name="라벨링" sheetId="4" r:id="rId4"/>
+    <sheet name="사용한것" sheetId="2" r:id="rId1"/>
+    <sheet name="전체리스트" sheetId="3" r:id="rId2"/>
+    <sheet name="라벨링" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">생산직!$A$1:$U$26</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">전체리스트!$A$1:$U$353</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">전체리스트!$A$1:$U$353</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3290" uniqueCount="1024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3269" uniqueCount="1024">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4040,1613 +4038,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BEB7CFA-1275-4BC2-9E6D-030C9909ACE9}">
-  <dimension ref="A1:U26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26DF048E-F26C-40CD-9704-774D5CE39381}">
+  <dimension ref="A1:U353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="31.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" ht="27.75" thickBot="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>989</v>
-      </c>
-      <c r="D1" t="s">
-        <v>674</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>896</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>903</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>897</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>898</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>900</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>901</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>902</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>904</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>899</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>905</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>906</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>907</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>914</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>915</v>
-      </c>
-      <c r="S1" s="20" t="s">
-        <v>961</v>
-      </c>
-      <c r="T1" s="27" t="s">
-        <v>984</v>
-      </c>
-      <c r="U1" s="27" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>798</v>
-      </c>
-      <c r="E2" s="11">
-        <v>30</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1</v>
-      </c>
-      <c r="G2" s="12">
-        <v>0</v>
-      </c>
-      <c r="H2" s="12">
-        <v>0</v>
-      </c>
-      <c r="I2" s="12">
-        <v>8</v>
-      </c>
-      <c r="J2" s="12">
-        <v>0</v>
-      </c>
-      <c r="K2" s="12">
-        <v>0</v>
-      </c>
-      <c r="L2" s="12">
-        <v>0</v>
-      </c>
-      <c r="M2" s="12">
-        <v>0</v>
-      </c>
-      <c r="N2" s="12">
-        <v>0</v>
-      </c>
-      <c r="O2" s="12">
-        <v>3</v>
-      </c>
-      <c r="P2" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5">
-        <v>6208105322</v>
-      </c>
-      <c r="U2" s="5">
-        <v>1812110015913</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="18" customHeight="1" thickBot="1">
-      <c r="A3" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B3" s="46" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>908</v>
-      </c>
-      <c r="E3" s="11">
-        <v>20</v>
-      </c>
-      <c r="F3" s="12">
-        <v>2</v>
-      </c>
-      <c r="G3" s="12">
-        <v>0</v>
-      </c>
-      <c r="H3" s="12">
-        <v>0</v>
-      </c>
-      <c r="I3" s="12">
-        <v>10</v>
-      </c>
-      <c r="J3" s="12">
-        <v>7</v>
-      </c>
-      <c r="K3" s="12">
-        <v>0</v>
-      </c>
-      <c r="L3" s="12">
-        <v>0</v>
-      </c>
-      <c r="M3" s="12">
-        <v>0</v>
-      </c>
-      <c r="N3" s="12">
-        <v>1</v>
-      </c>
-      <c r="O3" s="12">
-        <v>3</v>
-      </c>
-      <c r="P3" s="12">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5">
-        <v>1078759050</v>
-      </c>
-      <c r="U3" s="5">
-        <v>1101140104478</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>577</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>809</v>
-      </c>
-      <c r="E4" s="11">
-        <v>66</v>
-      </c>
-      <c r="F4" s="12">
-        <v>1</v>
-      </c>
-      <c r="G4" s="12">
-        <v>0</v>
-      </c>
-      <c r="H4" s="12">
-        <v>0</v>
-      </c>
-      <c r="I4" s="12">
-        <v>6</v>
-      </c>
-      <c r="J4" s="12">
-        <v>5</v>
-      </c>
-      <c r="K4" s="12">
-        <v>0</v>
-      </c>
-      <c r="L4" s="12">
-        <v>3</v>
-      </c>
-      <c r="M4" s="12">
-        <v>0</v>
-      </c>
-      <c r="N4" s="12">
-        <v>3</v>
-      </c>
-      <c r="O4" s="12">
-        <v>11</v>
-      </c>
-      <c r="P4" s="12">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="5" t="s">
-        <v>978</v>
-      </c>
-      <c r="T4" s="5">
-        <v>6142901191</v>
-      </c>
-      <c r="U4" s="5"/>
-    </row>
-    <row r="5" spans="1:21" ht="18" customHeight="1" thickBot="1">
-      <c r="A5" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B5" s="46" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>810</v>
-      </c>
-      <c r="E5" s="11">
-        <v>80</v>
-      </c>
-      <c r="F5" s="12">
-        <v>0</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0</v>
-      </c>
-      <c r="H5" s="12">
-        <v>0</v>
-      </c>
-      <c r="I5" s="12">
-        <v>8</v>
-      </c>
-      <c r="J5" s="12">
-        <v>9</v>
-      </c>
-      <c r="K5" s="12">
-        <v>0</v>
-      </c>
-      <c r="L5" s="12">
-        <v>5</v>
-      </c>
-      <c r="M5" s="12">
-        <v>3</v>
-      </c>
-      <c r="N5" s="12">
-        <v>30</v>
-      </c>
-      <c r="O5" s="12">
-        <v>0</v>
-      </c>
-      <c r="P5" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5">
-        <v>1058734257</v>
-      </c>
-      <c r="U5" s="5">
-        <v>1101114150001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="18" customHeight="1" thickBot="1">
-      <c r="A6" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B6" s="46" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>811</v>
-      </c>
-      <c r="E6" s="11">
-        <v>90</v>
-      </c>
-      <c r="F6" s="12">
-        <v>0</v>
-      </c>
-      <c r="G6" s="12">
-        <v>0</v>
-      </c>
-      <c r="H6" s="12">
-        <v>0</v>
-      </c>
-      <c r="I6" s="12">
-        <v>5</v>
-      </c>
-      <c r="J6" s="12">
-        <v>5</v>
-      </c>
-      <c r="K6" s="12">
-        <v>0</v>
-      </c>
-      <c r="L6" s="12">
-        <v>2</v>
-      </c>
-      <c r="M6" s="12">
-        <v>0</v>
-      </c>
-      <c r="N6" s="12">
-        <v>5</v>
-      </c>
-      <c r="O6" s="12">
-        <v>20</v>
-      </c>
-      <c r="P6" s="12">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="5" t="s">
-        <v>979</v>
-      </c>
-      <c r="T6" s="5">
-        <v>2148690274</v>
-      </c>
-      <c r="U6" s="5">
-        <v>1101112332560</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="18" customHeight="1" thickBot="1">
-      <c r="A7" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>601</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>830</v>
-      </c>
-      <c r="E7" s="11">
-        <v>97</v>
-      </c>
-      <c r="F7" s="12">
-        <v>0</v>
-      </c>
-      <c r="G7" s="12">
-        <v>0</v>
-      </c>
-      <c r="H7" s="12">
-        <v>0</v>
-      </c>
-      <c r="I7" s="12">
-        <v>6</v>
-      </c>
-      <c r="J7" s="12">
-        <v>6</v>
-      </c>
-      <c r="K7" s="12">
-        <v>0</v>
-      </c>
-      <c r="L7" s="12">
-        <v>2</v>
-      </c>
-      <c r="M7" s="12">
-        <v>2</v>
-      </c>
-      <c r="N7" s="12">
-        <v>20</v>
-      </c>
-      <c r="O7" s="12">
-        <v>6</v>
-      </c>
-      <c r="P7" s="12">
-        <v>6</v>
-      </c>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5">
-        <v>1208749934</v>
-      </c>
-      <c r="U7" s="5">
-        <v>1101114266527</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="18" customHeight="1" thickBot="1">
-      <c r="A8" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>958</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>833</v>
-      </c>
-      <c r="E8" s="11">
-        <v>30</v>
-      </c>
-      <c r="F8" s="12">
-        <v>0</v>
-      </c>
-      <c r="G8" s="12">
-        <v>0</v>
-      </c>
-      <c r="H8" s="12">
-        <v>0</v>
-      </c>
-      <c r="I8" s="12">
-        <v>5</v>
-      </c>
-      <c r="J8" s="12">
-        <v>5</v>
-      </c>
-      <c r="K8" s="12">
-        <v>0</v>
-      </c>
-      <c r="L8" s="12">
-        <v>0</v>
-      </c>
-      <c r="M8" s="12">
-        <v>0</v>
-      </c>
-      <c r="N8" s="12">
-        <v>0</v>
-      </c>
-      <c r="O8" s="12">
-        <v>0</v>
-      </c>
-      <c r="P8" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5">
-        <v>1388150691</v>
-      </c>
-      <c r="U8" s="5">
-        <v>1341110173695</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="18" customHeight="1" thickBot="1">
-      <c r="A9" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>606</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>835</v>
-      </c>
-      <c r="E9" s="11">
-        <v>25</v>
-      </c>
-      <c r="F9" s="12">
-        <v>0</v>
-      </c>
-      <c r="G9" s="12">
-        <v>0</v>
-      </c>
-      <c r="H9" s="12">
-        <v>0</v>
-      </c>
-      <c r="I9" s="12">
-        <v>8</v>
-      </c>
-      <c r="J9" s="12">
-        <v>5</v>
-      </c>
-      <c r="K9" s="12">
-        <v>0</v>
-      </c>
-      <c r="L9" s="12">
-        <v>0</v>
-      </c>
-      <c r="M9" s="12">
-        <v>0</v>
-      </c>
-      <c r="N9" s="12">
-        <v>3</v>
-      </c>
-      <c r="O9" s="12">
-        <v>0</v>
-      </c>
-      <c r="P9" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>916</v>
-      </c>
-      <c r="R9" s="24" t="s">
-        <v>925</v>
-      </c>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5">
-        <v>6088174509</v>
-      </c>
-      <c r="U9" s="5">
-        <v>1901110069226</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="18" customHeight="1" thickBot="1">
-      <c r="A10" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>836</v>
-      </c>
-      <c r="E10" s="11">
-        <v>10</v>
-      </c>
-      <c r="F10" s="12">
-        <v>0</v>
-      </c>
-      <c r="G10" s="12">
-        <v>0</v>
-      </c>
-      <c r="H10" s="12">
-        <v>0</v>
-      </c>
-      <c r="I10" s="12">
-        <v>5</v>
-      </c>
-      <c r="J10" s="12">
-        <v>5</v>
-      </c>
-      <c r="K10" s="12">
-        <v>0</v>
-      </c>
-      <c r="L10" s="12">
-        <v>1</v>
-      </c>
-      <c r="M10" s="12">
-        <v>1</v>
-      </c>
-      <c r="N10" s="12">
-        <v>1</v>
-      </c>
-      <c r="O10" s="12">
-        <v>0</v>
-      </c>
-      <c r="P10" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5">
-        <v>1283822213</v>
-      </c>
-      <c r="U10" s="5"/>
-    </row>
-    <row r="11" spans="1:21" ht="18" customHeight="1" thickBot="1">
-      <c r="A11" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>608</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>838</v>
-      </c>
-      <c r="E11" s="11">
-        <v>23</v>
-      </c>
-      <c r="F11" s="12">
-        <v>0</v>
-      </c>
-      <c r="G11" s="12">
-        <v>0</v>
-      </c>
-      <c r="H11" s="12">
-        <v>0</v>
-      </c>
-      <c r="I11" s="12">
-        <v>7</v>
-      </c>
-      <c r="J11" s="12">
-        <v>3</v>
-      </c>
-      <c r="K11" s="12">
-        <v>0</v>
-      </c>
-      <c r="L11" s="12">
-        <v>0</v>
-      </c>
-      <c r="M11" s="12">
-        <v>0</v>
-      </c>
-      <c r="N11" s="12">
-        <v>4</v>
-      </c>
-      <c r="O11" s="12">
-        <v>20</v>
-      </c>
-      <c r="P11" s="12">
-        <v>20</v>
-      </c>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5">
-        <v>1018630475</v>
-      </c>
-      <c r="U11" s="5">
-        <v>1101113636929</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="18" customHeight="1" thickBot="1">
-      <c r="A12" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>615</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>844</v>
-      </c>
-      <c r="E12" s="11">
-        <v>10</v>
-      </c>
-      <c r="F12" s="12">
-        <v>1</v>
-      </c>
-      <c r="G12" s="12">
-        <v>0</v>
-      </c>
-      <c r="H12" s="12">
-        <v>0</v>
-      </c>
-      <c r="I12" s="12">
-        <v>7</v>
-      </c>
-      <c r="J12" s="12">
-        <v>5</v>
-      </c>
-      <c r="K12" s="12">
-        <v>0</v>
-      </c>
-      <c r="L12" s="12">
-        <v>0</v>
-      </c>
-      <c r="M12" s="12">
-        <v>0</v>
-      </c>
-      <c r="N12" s="12">
-        <v>0</v>
-      </c>
-      <c r="O12" s="12">
-        <v>0</v>
-      </c>
-      <c r="P12" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5">
-        <v>2108151181</v>
-      </c>
-      <c r="U12" s="5"/>
-    </row>
-    <row r="13" spans="1:21" ht="18" customHeight="1" thickBot="1">
-      <c r="A13" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>618</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>908</v>
-      </c>
-      <c r="E13" s="11">
-        <v>99</v>
-      </c>
-      <c r="F13" s="12">
-        <v>0</v>
-      </c>
-      <c r="G13" s="12">
-        <v>0</v>
-      </c>
-      <c r="H13" s="12">
-        <v>0</v>
-      </c>
-      <c r="I13" s="12">
-        <v>7</v>
-      </c>
-      <c r="J13" s="12">
-        <v>5</v>
-      </c>
-      <c r="K13" s="12">
-        <v>0</v>
-      </c>
-      <c r="L13" s="12">
-        <v>3</v>
-      </c>
-      <c r="M13" s="12">
-        <v>3</v>
-      </c>
-      <c r="N13" s="12">
-        <v>10</v>
-      </c>
-      <c r="O13" s="12">
-        <v>5</v>
-      </c>
-      <c r="P13" s="12">
-        <v>5</v>
-      </c>
-      <c r="Q13" s="5" t="s">
-        <v>916</v>
-      </c>
-      <c r="R13" s="24" t="s">
-        <v>917</v>
-      </c>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5">
-        <v>2218114978</v>
-      </c>
-      <c r="U13" s="5"/>
-    </row>
-    <row r="14" spans="1:21" ht="18" customHeight="1" thickBot="1">
-      <c r="A14" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B14" s="46" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>814</v>
-      </c>
-      <c r="E14" s="11">
-        <v>30</v>
-      </c>
-      <c r="F14" s="12">
-        <v>0</v>
-      </c>
-      <c r="G14" s="12">
-        <v>0</v>
-      </c>
-      <c r="H14" s="12">
-        <v>0</v>
-      </c>
-      <c r="I14" s="12">
-        <v>1</v>
-      </c>
-      <c r="J14" s="12">
-        <v>5</v>
-      </c>
-      <c r="K14" s="12">
-        <v>0</v>
-      </c>
-      <c r="L14" s="12">
-        <v>0</v>
-      </c>
-      <c r="M14" s="12">
-        <v>0</v>
-      </c>
-      <c r="N14" s="12">
-        <v>0</v>
-      </c>
-      <c r="O14" s="12">
-        <v>5</v>
-      </c>
-      <c r="P14" s="12">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5">
-        <v>6178617114</v>
-      </c>
-      <c r="U14" s="5">
-        <v>1801110907569</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="18" customHeight="1" thickBot="1">
-      <c r="A15" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B15" s="46" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>640</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>685</v>
-      </c>
-      <c r="E15" s="11">
-        <v>25</v>
-      </c>
-      <c r="F15" s="12">
-        <v>0</v>
-      </c>
-      <c r="G15" s="12">
-        <v>0</v>
-      </c>
-      <c r="H15" s="12">
-        <v>0</v>
-      </c>
-      <c r="I15" s="12">
-        <v>9</v>
-      </c>
-      <c r="J15" s="12">
-        <v>5</v>
-      </c>
-      <c r="K15" s="12">
-        <v>0</v>
-      </c>
-      <c r="L15" s="12">
-        <v>0</v>
-      </c>
-      <c r="M15" s="12">
-        <v>0</v>
-      </c>
-      <c r="N15" s="12">
-        <v>0</v>
-      </c>
-      <c r="O15" s="12">
-        <v>15</v>
-      </c>
-      <c r="P15" s="12">
-        <v>10</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>943</v>
-      </c>
-      <c r="R15" s="24" t="s">
-        <v>922</v>
-      </c>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5">
-        <v>2840301888</v>
-      </c>
-      <c r="U15" s="5"/>
-    </row>
-    <row r="16" spans="1:21" ht="18" customHeight="1" thickBot="1">
-      <c r="A16" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B16" s="46" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>810</v>
-      </c>
-      <c r="E16" s="11">
-        <v>80</v>
-      </c>
-      <c r="F16" s="12">
-        <v>0</v>
-      </c>
-      <c r="G16" s="12">
-        <v>0</v>
-      </c>
-      <c r="H16" s="12">
-        <v>0</v>
-      </c>
-      <c r="I16" s="12">
-        <v>9</v>
-      </c>
-      <c r="J16" s="12">
-        <v>9</v>
-      </c>
-      <c r="K16" s="12">
-        <v>0</v>
-      </c>
-      <c r="L16" s="12">
-        <v>5</v>
-      </c>
-      <c r="M16" s="12">
-        <v>3</v>
-      </c>
-      <c r="N16" s="12">
-        <v>30</v>
-      </c>
-      <c r="O16" s="12">
-        <v>0</v>
-      </c>
-      <c r="P16" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5">
-        <v>5958100545</v>
-      </c>
-      <c r="U16" s="5"/>
-    </row>
-    <row r="17" spans="1:21" ht="18" customHeight="1" thickBot="1">
-      <c r="A17" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B17" s="46" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>872</v>
-      </c>
-      <c r="E17" s="11">
-        <v>30</v>
-      </c>
-      <c r="F17" s="12">
-        <v>7</v>
-      </c>
-      <c r="G17" s="12">
-        <v>6</v>
-      </c>
-      <c r="H17" s="12">
-        <v>0</v>
-      </c>
-      <c r="I17" s="12">
-        <v>6</v>
-      </c>
-      <c r="J17" s="12">
-        <v>9</v>
-      </c>
-      <c r="K17" s="12">
-        <v>0</v>
-      </c>
-      <c r="L17" s="12">
-        <v>1</v>
-      </c>
-      <c r="M17" s="12">
-        <v>0</v>
-      </c>
-      <c r="N17" s="12">
-        <v>2</v>
-      </c>
-      <c r="O17" s="12">
-        <v>12</v>
-      </c>
-      <c r="P17" s="12">
-        <v>12</v>
-      </c>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5">
-        <v>1098701781</v>
-      </c>
-      <c r="U17" s="5"/>
-    </row>
-    <row r="18" spans="1:21" ht="18" customHeight="1" thickBot="1">
-      <c r="A18" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>652</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>875</v>
-      </c>
-      <c r="E18" s="11">
-        <v>10</v>
-      </c>
-      <c r="F18" s="12">
-        <v>0</v>
-      </c>
-      <c r="G18" s="12">
-        <v>0</v>
-      </c>
-      <c r="H18" s="12">
-        <v>0</v>
-      </c>
-      <c r="I18" s="12">
-        <v>9</v>
-      </c>
-      <c r="J18" s="12">
-        <v>8</v>
-      </c>
-      <c r="K18" s="12">
-        <v>0</v>
-      </c>
-      <c r="L18" s="12">
-        <v>0</v>
-      </c>
-      <c r="M18" s="12">
-        <v>0</v>
-      </c>
-      <c r="N18" s="12">
-        <v>0</v>
-      </c>
-      <c r="O18" s="12">
-        <v>3</v>
-      </c>
-      <c r="P18" s="12">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5">
-        <v>4058800692</v>
-      </c>
-      <c r="U18" s="5"/>
-    </row>
-    <row r="19" spans="1:21" ht="18" customHeight="1" thickBot="1">
-      <c r="A19" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>685</v>
-      </c>
-      <c r="E19" s="11">
-        <v>8</v>
-      </c>
-      <c r="F19" s="12">
-        <v>0</v>
-      </c>
-      <c r="G19" s="12">
-        <v>0</v>
-      </c>
-      <c r="H19" s="12">
-        <v>0</v>
-      </c>
-      <c r="I19" s="12">
-        <v>9</v>
-      </c>
-      <c r="J19" s="12">
-        <v>7</v>
-      </c>
-      <c r="K19" s="12">
-        <v>0</v>
-      </c>
-      <c r="L19" s="12">
-        <v>0</v>
-      </c>
-      <c r="M19" s="12">
-        <v>0</v>
-      </c>
-      <c r="N19" s="12">
-        <v>2</v>
-      </c>
-      <c r="O19" s="12">
-        <v>1</v>
-      </c>
-      <c r="P19" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5">
-        <v>4178131466</v>
-      </c>
-      <c r="U19" s="5">
-        <v>2062110030416</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="18" customHeight="1" thickBot="1">
-      <c r="A20" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>657</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>879</v>
-      </c>
-      <c r="E20" s="11">
-        <v>5</v>
-      </c>
-      <c r="F20" s="12">
-        <v>0</v>
-      </c>
-      <c r="G20" s="12">
-        <v>0</v>
-      </c>
-      <c r="H20" s="12">
-        <v>0</v>
-      </c>
-      <c r="I20" s="12">
-        <v>10</v>
-      </c>
-      <c r="J20" s="12">
-        <v>4</v>
-      </c>
-      <c r="K20" s="12">
-        <v>0</v>
-      </c>
-      <c r="L20" s="12">
-        <v>0</v>
-      </c>
-      <c r="M20" s="12">
-        <v>0</v>
-      </c>
-      <c r="N20" s="12">
-        <v>2</v>
-      </c>
-      <c r="O20" s="12">
-        <v>1</v>
-      </c>
-      <c r="P20" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5">
-        <v>6098192534</v>
-      </c>
-      <c r="U20" s="5">
-        <v>1942110104860</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="18" customHeight="1" thickBot="1">
-      <c r="A21" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>881</v>
-      </c>
-      <c r="E21" s="11">
-        <v>40</v>
-      </c>
-      <c r="F21" s="12">
-        <v>3</v>
-      </c>
-      <c r="G21" s="12">
-        <v>0</v>
-      </c>
-      <c r="H21" s="12">
-        <v>0</v>
-      </c>
-      <c r="I21" s="12">
-        <v>8</v>
-      </c>
-      <c r="J21" s="12">
-        <v>8</v>
-      </c>
-      <c r="K21" s="12">
-        <v>0</v>
-      </c>
-      <c r="L21" s="12">
-        <v>2</v>
-      </c>
-      <c r="M21" s="12">
-        <v>2</v>
-      </c>
-      <c r="N21" s="12">
-        <v>0</v>
-      </c>
-      <c r="O21" s="12">
-        <v>4</v>
-      </c>
-      <c r="P21" s="12">
-        <v>2</v>
-      </c>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5">
-        <v>5028152906</v>
-      </c>
-      <c r="U21" s="5">
-        <v>1701110175283</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="18" customHeight="1" thickBot="1">
-      <c r="A22" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>661</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>908</v>
-      </c>
-      <c r="E22" s="11">
-        <v>17</v>
-      </c>
-      <c r="F22" s="12">
-        <v>0</v>
-      </c>
-      <c r="G22" s="12">
-        <v>4</v>
-      </c>
-      <c r="H22" s="12">
-        <v>0</v>
-      </c>
-      <c r="I22" s="12">
-        <v>6</v>
-      </c>
-      <c r="J22" s="12">
-        <v>2</v>
-      </c>
-      <c r="K22" s="12">
-        <v>0</v>
-      </c>
-      <c r="L22" s="12">
-        <v>0</v>
-      </c>
-      <c r="M22" s="12">
-        <v>0</v>
-      </c>
-      <c r="N22" s="12">
-        <v>2</v>
-      </c>
-      <c r="O22" s="12">
-        <v>2</v>
-      </c>
-      <c r="P22" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="5" t="s">
-        <v>953</v>
-      </c>
-      <c r="R22" s="24" t="s">
-        <v>925</v>
-      </c>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5">
-        <v>2148737067</v>
-      </c>
-      <c r="U22" s="5">
-        <v>1101112808925</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="18" customHeight="1" thickBot="1">
-      <c r="A23" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>662</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>908</v>
-      </c>
-      <c r="E23" s="11">
-        <v>11</v>
-      </c>
-      <c r="F23" s="12">
-        <v>0</v>
-      </c>
-      <c r="G23" s="12">
-        <v>0</v>
-      </c>
-      <c r="H23" s="12">
-        <v>0</v>
-      </c>
-      <c r="I23" s="12">
-        <v>7</v>
-      </c>
-      <c r="J23" s="12">
-        <v>1</v>
-      </c>
-      <c r="K23" s="12">
-        <v>0</v>
-      </c>
-      <c r="L23" s="12">
-        <v>0</v>
-      </c>
-      <c r="M23" s="12">
-        <v>0</v>
-      </c>
-      <c r="N23" s="12">
-        <v>0</v>
-      </c>
-      <c r="O23" s="12">
-        <v>5</v>
-      </c>
-      <c r="P23" s="12">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5">
-        <v>2208794802</v>
-      </c>
-      <c r="U23" s="5">
-        <v>1101114285288</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="18" customHeight="1" thickBot="1">
-      <c r="A24" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>913</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>888</v>
-      </c>
-      <c r="E24" s="11">
-        <v>17</v>
-      </c>
-      <c r="F24" s="12">
-        <v>0</v>
-      </c>
-      <c r="G24" s="12">
-        <v>0</v>
-      </c>
-      <c r="H24" s="12">
-        <v>0</v>
-      </c>
-      <c r="I24" s="12">
-        <v>7</v>
-      </c>
-      <c r="J24" s="12">
-        <v>4</v>
-      </c>
-      <c r="K24" s="12">
-        <v>0</v>
-      </c>
-      <c r="L24" s="12">
-        <v>0</v>
-      </c>
-      <c r="M24" s="12">
-        <v>0</v>
-      </c>
-      <c r="N24" s="12">
-        <v>1</v>
-      </c>
-      <c r="O24" s="12">
-        <v>4</v>
-      </c>
-      <c r="P24" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5">
-        <v>2208768963</v>
-      </c>
-      <c r="U24" s="5">
-        <v>1101113931113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="18" customHeight="1" thickBot="1">
-      <c r="A25" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>670</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>892</v>
-      </c>
-      <c r="E25" s="11">
-        <v>13</v>
-      </c>
-      <c r="F25" s="12">
-        <v>0</v>
-      </c>
-      <c r="G25" s="12">
-        <v>0</v>
-      </c>
-      <c r="H25" s="12">
-        <v>0</v>
-      </c>
-      <c r="I25" s="12">
-        <v>9</v>
-      </c>
-      <c r="J25" s="12">
-        <v>3</v>
-      </c>
-      <c r="K25" s="12">
-        <v>0</v>
-      </c>
-      <c r="L25" s="12">
-        <v>0</v>
-      </c>
-      <c r="M25" s="12">
-        <v>0</v>
-      </c>
-      <c r="N25" s="12">
-        <v>1</v>
-      </c>
-      <c r="O25" s="12">
-        <v>4</v>
-      </c>
-      <c r="P25" s="12">
-        <v>4</v>
-      </c>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5">
-        <v>2208644867</v>
-      </c>
-      <c r="U25" s="5">
-        <v>1101112585903</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="18" customHeight="1" thickBot="1">
-      <c r="A26" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>672</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>894</v>
-      </c>
-      <c r="E26" s="11">
-        <v>7</v>
-      </c>
-      <c r="F26" s="12">
-        <v>0</v>
-      </c>
-      <c r="G26" s="12">
-        <v>0</v>
-      </c>
-      <c r="H26" s="12">
-        <v>0</v>
-      </c>
-      <c r="I26" s="12">
-        <v>9</v>
-      </c>
-      <c r="J26" s="12">
-        <v>6</v>
-      </c>
-      <c r="K26" s="12">
-        <v>0</v>
-      </c>
-      <c r="L26" s="12">
-        <v>0</v>
-      </c>
-      <c r="M26" s="12">
-        <v>0</v>
-      </c>
-      <c r="N26" s="12">
-        <v>2</v>
-      </c>
-      <c r="O26" s="12">
-        <v>0</v>
-      </c>
-      <c r="P26" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5">
-        <v>2158164599</v>
-      </c>
-      <c r="U26" s="5">
-        <v>1101111436884</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:U26" xr:uid="{3BEB7CFA-1275-4BC2-9E6D-030C9909ACE9}"/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{838AEDCC-73A2-4B6E-A495-524ED8411FBC}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{AD8AD7F3-65F5-42E2-937B-FBA9C4368792}"/>
-    <hyperlink ref="A5" r:id="rId3" xr:uid="{D5DDBAFF-63DA-4EBF-B3F2-70429C9C7330}"/>
-    <hyperlink ref="A6" r:id="rId4" xr:uid="{1CB54AC3-7E05-4087-967A-EFB659965711}"/>
-    <hyperlink ref="A7" r:id="rId5" xr:uid="{A5684E41-59E2-4FE0-919D-4ECB8B4B4438}"/>
-    <hyperlink ref="A8" r:id="rId6" xr:uid="{8924EF06-34B3-4998-AB02-05C802126FCF}"/>
-    <hyperlink ref="A9" r:id="rId7" xr:uid="{44DFBA65-1211-43E1-BEA8-D4E6134A9E12}"/>
-    <hyperlink ref="A10" r:id="rId8" xr:uid="{7302B480-3D04-4D47-871F-42F2A7AD8694}"/>
-    <hyperlink ref="A11" r:id="rId9" xr:uid="{C21F9252-0DC3-4802-8B0F-0EA19B4F263E}"/>
-    <hyperlink ref="A12" r:id="rId10" xr:uid="{166ABAF0-6698-4A2A-9F19-4B2DF063B2A2}"/>
-    <hyperlink ref="A13" r:id="rId11" xr:uid="{7EF56B22-112E-4D83-B2FF-7C0AC557989E}"/>
-    <hyperlink ref="A14" r:id="rId12" xr:uid="{CF5A1DF5-9CA2-4073-8110-30EEC23964BF}"/>
-    <hyperlink ref="A15" r:id="rId13" xr:uid="{6FC4B646-F658-43FE-B78E-CAF644FE7842}"/>
-    <hyperlink ref="A16" r:id="rId14" xr:uid="{DF964647-DAFD-49DF-804B-B1B45D8245BA}"/>
-    <hyperlink ref="A17" r:id="rId15" xr:uid="{3A1BAB5D-8C86-4225-B1A9-073CFC5F77A9}"/>
-    <hyperlink ref="A18" r:id="rId16" xr:uid="{017E470C-A3E6-4751-98D7-2A1E04C96776}"/>
-    <hyperlink ref="A19" r:id="rId17" xr:uid="{815159C2-BE06-4B0D-9580-FFDCE677B441}"/>
-    <hyperlink ref="A20" r:id="rId18" xr:uid="{EB9C1BEC-C87F-4F45-8CF8-16CFFDCE5D93}"/>
-    <hyperlink ref="A21" r:id="rId19" xr:uid="{C5467B16-3BAF-41A8-A7C2-BFD4821DA1EA}"/>
-    <hyperlink ref="A22" r:id="rId20" xr:uid="{900F0F2B-B19E-4D34-986D-C763E5131049}"/>
-    <hyperlink ref="A23" r:id="rId21" xr:uid="{1DFCCEF4-BDBB-435C-AE78-02A11D9C2112}"/>
-    <hyperlink ref="A24" r:id="rId22" xr:uid="{2BD834B1-E12B-43F9-9F6D-D7E435A586B7}"/>
-    <hyperlink ref="A25" r:id="rId23" xr:uid="{E03A9E7A-2055-4B17-A76B-7FABD6FC213E}"/>
-    <hyperlink ref="A26" r:id="rId24" xr:uid="{2C77A4EE-39A9-4AA0-90DC-0C8860321E7E}"/>
-    <hyperlink ref="A2" r:id="rId25" xr:uid="{C5808FED-A939-40F8-A724-DFB6A94DDC72}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId26"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26DF048E-F26C-40CD-9704-774D5CE39381}">
-  <dimension ref="A1:U328"/>
-  <sheetViews>
-    <sheetView topLeftCell="A308" workbookViewId="0">
-      <selection activeCell="A328" sqref="A328:XFD328"/>
+    <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
+      <selection activeCell="F346" sqref="F346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -25219,6 +23615,1485 @@
       </c>
       <c r="U328" s="5">
         <v>1201110848830</v>
+      </c>
+    </row>
+    <row r="329" spans="1:21" ht="18" customHeight="1" thickBot="1">
+      <c r="A329" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B329" s="46" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C329" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="D329" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="E329" s="11">
+        <v>30</v>
+      </c>
+      <c r="F329" s="12">
+        <v>1</v>
+      </c>
+      <c r="G329" s="12">
+        <v>0</v>
+      </c>
+      <c r="H329" s="12">
+        <v>0</v>
+      </c>
+      <c r="I329" s="12">
+        <v>8</v>
+      </c>
+      <c r="J329" s="12">
+        <v>0</v>
+      </c>
+      <c r="K329" s="12">
+        <v>0</v>
+      </c>
+      <c r="L329" s="12">
+        <v>0</v>
+      </c>
+      <c r="M329" s="12">
+        <v>0</v>
+      </c>
+      <c r="N329" s="12">
+        <v>0</v>
+      </c>
+      <c r="O329" s="12">
+        <v>3</v>
+      </c>
+      <c r="P329" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q329" s="5"/>
+      <c r="R329" s="24"/>
+      <c r="S329" s="5"/>
+      <c r="T329" s="5">
+        <v>6208105322</v>
+      </c>
+      <c r="U329" s="5">
+        <v>1812110015913</v>
+      </c>
+    </row>
+    <row r="330" spans="1:21" ht="18" customHeight="1" thickBot="1">
+      <c r="A330" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B330" s="46" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C330" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="D330" s="18" t="s">
+        <v>908</v>
+      </c>
+      <c r="E330" s="11">
+        <v>20</v>
+      </c>
+      <c r="F330" s="12">
+        <v>2</v>
+      </c>
+      <c r="G330" s="12">
+        <v>0</v>
+      </c>
+      <c r="H330" s="12">
+        <v>0</v>
+      </c>
+      <c r="I330" s="12">
+        <v>10</v>
+      </c>
+      <c r="J330" s="12">
+        <v>7</v>
+      </c>
+      <c r="K330" s="12">
+        <v>0</v>
+      </c>
+      <c r="L330" s="12">
+        <v>0</v>
+      </c>
+      <c r="M330" s="12">
+        <v>0</v>
+      </c>
+      <c r="N330" s="12">
+        <v>1</v>
+      </c>
+      <c r="O330" s="12">
+        <v>3</v>
+      </c>
+      <c r="P330" s="12">
+        <v>3</v>
+      </c>
+      <c r="Q330" s="5"/>
+      <c r="R330" s="24"/>
+      <c r="S330" s="5"/>
+      <c r="T330" s="5">
+        <v>1078759050</v>
+      </c>
+      <c r="U330" s="5">
+        <v>1101140104478</v>
+      </c>
+    </row>
+    <row r="331" spans="1:21" ht="18" customHeight="1" thickBot="1">
+      <c r="A331" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B331" s="46" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C331" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="D331" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="E331" s="11">
+        <v>66</v>
+      </c>
+      <c r="F331" s="12">
+        <v>1</v>
+      </c>
+      <c r="G331" s="12">
+        <v>0</v>
+      </c>
+      <c r="H331" s="12">
+        <v>0</v>
+      </c>
+      <c r="I331" s="12">
+        <v>6</v>
+      </c>
+      <c r="J331" s="12">
+        <v>5</v>
+      </c>
+      <c r="K331" s="12">
+        <v>0</v>
+      </c>
+      <c r="L331" s="12">
+        <v>3</v>
+      </c>
+      <c r="M331" s="12">
+        <v>0</v>
+      </c>
+      <c r="N331" s="12">
+        <v>3</v>
+      </c>
+      <c r="O331" s="12">
+        <v>11</v>
+      </c>
+      <c r="P331" s="12">
+        <v>11</v>
+      </c>
+      <c r="Q331" s="5"/>
+      <c r="R331" s="24"/>
+      <c r="S331" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="T331" s="5">
+        <v>6142901191</v>
+      </c>
+      <c r="U331" s="5"/>
+    </row>
+    <row r="332" spans="1:21" ht="18" customHeight="1" thickBot="1">
+      <c r="A332" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B332" s="46" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C332" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="D332" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E332" s="11">
+        <v>80</v>
+      </c>
+      <c r="F332" s="12">
+        <v>0</v>
+      </c>
+      <c r="G332" s="12">
+        <v>0</v>
+      </c>
+      <c r="H332" s="12">
+        <v>0</v>
+      </c>
+      <c r="I332" s="12">
+        <v>8</v>
+      </c>
+      <c r="J332" s="12">
+        <v>9</v>
+      </c>
+      <c r="K332" s="12">
+        <v>0</v>
+      </c>
+      <c r="L332" s="12">
+        <v>5</v>
+      </c>
+      <c r="M332" s="12">
+        <v>3</v>
+      </c>
+      <c r="N332" s="12">
+        <v>30</v>
+      </c>
+      <c r="O332" s="12">
+        <v>0</v>
+      </c>
+      <c r="P332" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q332" s="5"/>
+      <c r="R332" s="24"/>
+      <c r="S332" s="5"/>
+      <c r="T332" s="5">
+        <v>1058734257</v>
+      </c>
+      <c r="U332" s="5">
+        <v>1101114150001</v>
+      </c>
+    </row>
+    <row r="333" spans="1:21" ht="18" customHeight="1" thickBot="1">
+      <c r="A333" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B333" s="46" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C333" s="5" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D333" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="E333" s="11">
+        <v>90</v>
+      </c>
+      <c r="F333" s="12">
+        <v>0</v>
+      </c>
+      <c r="G333" s="12">
+        <v>0</v>
+      </c>
+      <c r="H333" s="12">
+        <v>0</v>
+      </c>
+      <c r="I333" s="12">
+        <v>5</v>
+      </c>
+      <c r="J333" s="12">
+        <v>5</v>
+      </c>
+      <c r="K333" s="12">
+        <v>0</v>
+      </c>
+      <c r="L333" s="12">
+        <v>2</v>
+      </c>
+      <c r="M333" s="12">
+        <v>0</v>
+      </c>
+      <c r="N333" s="12">
+        <v>5</v>
+      </c>
+      <c r="O333" s="12">
+        <v>20</v>
+      </c>
+      <c r="P333" s="12">
+        <v>10</v>
+      </c>
+      <c r="Q333" s="5"/>
+      <c r="R333" s="24"/>
+      <c r="S333" s="5" t="s">
+        <v>979</v>
+      </c>
+      <c r="T333" s="5">
+        <v>2148690274</v>
+      </c>
+      <c r="U333" s="5">
+        <v>1101112332560</v>
+      </c>
+    </row>
+    <row r="334" spans="1:21" ht="18" customHeight="1" thickBot="1">
+      <c r="A334" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B334" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C334" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="D334" s="7" t="s">
+        <v>830</v>
+      </c>
+      <c r="E334" s="11">
+        <v>97</v>
+      </c>
+      <c r="F334" s="12">
+        <v>0</v>
+      </c>
+      <c r="G334" s="12">
+        <v>0</v>
+      </c>
+      <c r="H334" s="12">
+        <v>0</v>
+      </c>
+      <c r="I334" s="12">
+        <v>6</v>
+      </c>
+      <c r="J334" s="12">
+        <v>6</v>
+      </c>
+      <c r="K334" s="12">
+        <v>0</v>
+      </c>
+      <c r="L334" s="12">
+        <v>2</v>
+      </c>
+      <c r="M334" s="12">
+        <v>2</v>
+      </c>
+      <c r="N334" s="12">
+        <v>20</v>
+      </c>
+      <c r="O334" s="12">
+        <v>6</v>
+      </c>
+      <c r="P334" s="12">
+        <v>6</v>
+      </c>
+      <c r="Q334" s="5"/>
+      <c r="R334" s="24"/>
+      <c r="S334" s="5"/>
+      <c r="T334" s="5">
+        <v>1208749934</v>
+      </c>
+      <c r="U334" s="5">
+        <v>1101114266527</v>
+      </c>
+    </row>
+    <row r="335" spans="1:21" ht="18" customHeight="1" thickBot="1">
+      <c r="A335" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B335" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C335" s="5" t="s">
+        <v>958</v>
+      </c>
+      <c r="D335" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="E335" s="11">
+        <v>30</v>
+      </c>
+      <c r="F335" s="12">
+        <v>0</v>
+      </c>
+      <c r="G335" s="12">
+        <v>0</v>
+      </c>
+      <c r="H335" s="12">
+        <v>0</v>
+      </c>
+      <c r="I335" s="12">
+        <v>5</v>
+      </c>
+      <c r="J335" s="12">
+        <v>5</v>
+      </c>
+      <c r="K335" s="12">
+        <v>0</v>
+      </c>
+      <c r="L335" s="12">
+        <v>0</v>
+      </c>
+      <c r="M335" s="12">
+        <v>0</v>
+      </c>
+      <c r="N335" s="12">
+        <v>0</v>
+      </c>
+      <c r="O335" s="12">
+        <v>0</v>
+      </c>
+      <c r="P335" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q335" s="5"/>
+      <c r="R335" s="24"/>
+      <c r="S335" s="5"/>
+      <c r="T335" s="5">
+        <v>1388150691</v>
+      </c>
+      <c r="U335" s="5">
+        <v>1341110173695</v>
+      </c>
+    </row>
+    <row r="336" spans="1:21" ht="18" customHeight="1" thickBot="1">
+      <c r="A336" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B336" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C336" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="D336" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="E336" s="11">
+        <v>25</v>
+      </c>
+      <c r="F336" s="12">
+        <v>0</v>
+      </c>
+      <c r="G336" s="12">
+        <v>0</v>
+      </c>
+      <c r="H336" s="12">
+        <v>0</v>
+      </c>
+      <c r="I336" s="12">
+        <v>8</v>
+      </c>
+      <c r="J336" s="12">
+        <v>5</v>
+      </c>
+      <c r="K336" s="12">
+        <v>0</v>
+      </c>
+      <c r="L336" s="12">
+        <v>0</v>
+      </c>
+      <c r="M336" s="12">
+        <v>0</v>
+      </c>
+      <c r="N336" s="12">
+        <v>3</v>
+      </c>
+      <c r="O336" s="12">
+        <v>0</v>
+      </c>
+      <c r="P336" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q336" s="5" t="s">
+        <v>916</v>
+      </c>
+      <c r="R336" s="24" t="s">
+        <v>925</v>
+      </c>
+      <c r="S336" s="5"/>
+      <c r="T336" s="5">
+        <v>6088174509</v>
+      </c>
+      <c r="U336" s="5">
+        <v>1901110069226</v>
+      </c>
+    </row>
+    <row r="337" spans="1:21" ht="18" customHeight="1" thickBot="1">
+      <c r="A337" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B337" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C337" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="D337" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="E337" s="11">
+        <v>10</v>
+      </c>
+      <c r="F337" s="12">
+        <v>0</v>
+      </c>
+      <c r="G337" s="12">
+        <v>0</v>
+      </c>
+      <c r="H337" s="12">
+        <v>0</v>
+      </c>
+      <c r="I337" s="12">
+        <v>5</v>
+      </c>
+      <c r="J337" s="12">
+        <v>5</v>
+      </c>
+      <c r="K337" s="12">
+        <v>0</v>
+      </c>
+      <c r="L337" s="12">
+        <v>1</v>
+      </c>
+      <c r="M337" s="12">
+        <v>1</v>
+      </c>
+      <c r="N337" s="12">
+        <v>1</v>
+      </c>
+      <c r="O337" s="12">
+        <v>0</v>
+      </c>
+      <c r="P337" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q337" s="5"/>
+      <c r="R337" s="24"/>
+      <c r="S337" s="5"/>
+      <c r="T337" s="5">
+        <v>1283822213</v>
+      </c>
+      <c r="U337" s="5"/>
+    </row>
+    <row r="338" spans="1:21" ht="18" customHeight="1" thickBot="1">
+      <c r="A338" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B338" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C338" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="D338" s="7" t="s">
+        <v>838</v>
+      </c>
+      <c r="E338" s="11">
+        <v>23</v>
+      </c>
+      <c r="F338" s="12">
+        <v>0</v>
+      </c>
+      <c r="G338" s="12">
+        <v>0</v>
+      </c>
+      <c r="H338" s="12">
+        <v>0</v>
+      </c>
+      <c r="I338" s="12">
+        <v>7</v>
+      </c>
+      <c r="J338" s="12">
+        <v>3</v>
+      </c>
+      <c r="K338" s="12">
+        <v>0</v>
+      </c>
+      <c r="L338" s="12">
+        <v>0</v>
+      </c>
+      <c r="M338" s="12">
+        <v>0</v>
+      </c>
+      <c r="N338" s="12">
+        <v>4</v>
+      </c>
+      <c r="O338" s="12">
+        <v>20</v>
+      </c>
+      <c r="P338" s="12">
+        <v>20</v>
+      </c>
+      <c r="Q338" s="5"/>
+      <c r="R338" s="24"/>
+      <c r="S338" s="5"/>
+      <c r="T338" s="5">
+        <v>1018630475</v>
+      </c>
+      <c r="U338" s="5">
+        <v>1101113636929</v>
+      </c>
+    </row>
+    <row r="339" spans="1:21" ht="18" customHeight="1" thickBot="1">
+      <c r="A339" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B339" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C339" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="D339" s="7" t="s">
+        <v>844</v>
+      </c>
+      <c r="E339" s="11">
+        <v>10</v>
+      </c>
+      <c r="F339" s="12">
+        <v>1</v>
+      </c>
+      <c r="G339" s="12">
+        <v>0</v>
+      </c>
+      <c r="H339" s="12">
+        <v>0</v>
+      </c>
+      <c r="I339" s="12">
+        <v>7</v>
+      </c>
+      <c r="J339" s="12">
+        <v>5</v>
+      </c>
+      <c r="K339" s="12">
+        <v>0</v>
+      </c>
+      <c r="L339" s="12">
+        <v>0</v>
+      </c>
+      <c r="M339" s="12">
+        <v>0</v>
+      </c>
+      <c r="N339" s="12">
+        <v>0</v>
+      </c>
+      <c r="O339" s="12">
+        <v>0</v>
+      </c>
+      <c r="P339" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q339" s="5"/>
+      <c r="R339" s="24"/>
+      <c r="S339" s="5"/>
+      <c r="T339" s="5">
+        <v>2108151181</v>
+      </c>
+      <c r="U339" s="5"/>
+    </row>
+    <row r="340" spans="1:21" ht="18" customHeight="1" thickBot="1">
+      <c r="A340" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B340" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C340" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="D340" s="18" t="s">
+        <v>908</v>
+      </c>
+      <c r="E340" s="11">
+        <v>99</v>
+      </c>
+      <c r="F340" s="12">
+        <v>0</v>
+      </c>
+      <c r="G340" s="12">
+        <v>0</v>
+      </c>
+      <c r="H340" s="12">
+        <v>0</v>
+      </c>
+      <c r="I340" s="12">
+        <v>7</v>
+      </c>
+      <c r="J340" s="12">
+        <v>5</v>
+      </c>
+      <c r="K340" s="12">
+        <v>0</v>
+      </c>
+      <c r="L340" s="12">
+        <v>3</v>
+      </c>
+      <c r="M340" s="12">
+        <v>3</v>
+      </c>
+      <c r="N340" s="12">
+        <v>10</v>
+      </c>
+      <c r="O340" s="12">
+        <v>5</v>
+      </c>
+      <c r="P340" s="12">
+        <v>5</v>
+      </c>
+      <c r="Q340" s="5" t="s">
+        <v>916</v>
+      </c>
+      <c r="R340" s="24" t="s">
+        <v>917</v>
+      </c>
+      <c r="S340" s="5"/>
+      <c r="T340" s="5">
+        <v>2218114978</v>
+      </c>
+      <c r="U340" s="5"/>
+    </row>
+    <row r="341" spans="1:21" ht="18" customHeight="1" thickBot="1">
+      <c r="A341" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B341" s="46" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C341" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="D341" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="E341" s="11">
+        <v>30</v>
+      </c>
+      <c r="F341" s="12">
+        <v>0</v>
+      </c>
+      <c r="G341" s="12">
+        <v>0</v>
+      </c>
+      <c r="H341" s="12">
+        <v>0</v>
+      </c>
+      <c r="I341" s="12">
+        <v>1</v>
+      </c>
+      <c r="J341" s="12">
+        <v>5</v>
+      </c>
+      <c r="K341" s="12">
+        <v>0</v>
+      </c>
+      <c r="L341" s="12">
+        <v>0</v>
+      </c>
+      <c r="M341" s="12">
+        <v>0</v>
+      </c>
+      <c r="N341" s="12">
+        <v>0</v>
+      </c>
+      <c r="O341" s="12">
+        <v>5</v>
+      </c>
+      <c r="P341" s="12">
+        <v>5</v>
+      </c>
+      <c r="Q341" s="5"/>
+      <c r="R341" s="24"/>
+      <c r="S341" s="5"/>
+      <c r="T341" s="5">
+        <v>6178617114</v>
+      </c>
+      <c r="U341" s="5">
+        <v>1801110907569</v>
+      </c>
+    </row>
+    <row r="342" spans="1:21" ht="18" customHeight="1" thickBot="1">
+      <c r="A342" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B342" s="46" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C342" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="D342" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="E342" s="11">
+        <v>25</v>
+      </c>
+      <c r="F342" s="12">
+        <v>0</v>
+      </c>
+      <c r="G342" s="12">
+        <v>0</v>
+      </c>
+      <c r="H342" s="12">
+        <v>0</v>
+      </c>
+      <c r="I342" s="12">
+        <v>9</v>
+      </c>
+      <c r="J342" s="12">
+        <v>5</v>
+      </c>
+      <c r="K342" s="12">
+        <v>0</v>
+      </c>
+      <c r="L342" s="12">
+        <v>0</v>
+      </c>
+      <c r="M342" s="12">
+        <v>0</v>
+      </c>
+      <c r="N342" s="12">
+        <v>0</v>
+      </c>
+      <c r="O342" s="12">
+        <v>15</v>
+      </c>
+      <c r="P342" s="12">
+        <v>10</v>
+      </c>
+      <c r="Q342" s="5" t="s">
+        <v>943</v>
+      </c>
+      <c r="R342" s="24" t="s">
+        <v>922</v>
+      </c>
+      <c r="S342" s="5"/>
+      <c r="T342" s="5">
+        <v>2840301888</v>
+      </c>
+      <c r="U342" s="5"/>
+    </row>
+    <row r="343" spans="1:21" ht="18" customHeight="1" thickBot="1">
+      <c r="A343" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B343" s="46" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C343" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="D343" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E343" s="11">
+        <v>80</v>
+      </c>
+      <c r="F343" s="12">
+        <v>0</v>
+      </c>
+      <c r="G343" s="12">
+        <v>0</v>
+      </c>
+      <c r="H343" s="12">
+        <v>0</v>
+      </c>
+      <c r="I343" s="12">
+        <v>9</v>
+      </c>
+      <c r="J343" s="12">
+        <v>9</v>
+      </c>
+      <c r="K343" s="12">
+        <v>0</v>
+      </c>
+      <c r="L343" s="12">
+        <v>5</v>
+      </c>
+      <c r="M343" s="12">
+        <v>3</v>
+      </c>
+      <c r="N343" s="12">
+        <v>30</v>
+      </c>
+      <c r="O343" s="12">
+        <v>0</v>
+      </c>
+      <c r="P343" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q343" s="5"/>
+      <c r="R343" s="24"/>
+      <c r="S343" s="5"/>
+      <c r="T343" s="5">
+        <v>5958100545</v>
+      </c>
+      <c r="U343" s="5"/>
+    </row>
+    <row r="344" spans="1:21" ht="18" customHeight="1" thickBot="1">
+      <c r="A344" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B344" s="46" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C344" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="D344" s="7" t="s">
+        <v>872</v>
+      </c>
+      <c r="E344" s="11">
+        <v>30</v>
+      </c>
+      <c r="F344" s="12">
+        <v>7</v>
+      </c>
+      <c r="G344" s="12">
+        <v>6</v>
+      </c>
+      <c r="H344" s="12">
+        <v>0</v>
+      </c>
+      <c r="I344" s="12">
+        <v>6</v>
+      </c>
+      <c r="J344" s="12">
+        <v>9</v>
+      </c>
+      <c r="K344" s="12">
+        <v>0</v>
+      </c>
+      <c r="L344" s="12">
+        <v>1</v>
+      </c>
+      <c r="M344" s="12">
+        <v>0</v>
+      </c>
+      <c r="N344" s="12">
+        <v>2</v>
+      </c>
+      <c r="O344" s="12">
+        <v>12</v>
+      </c>
+      <c r="P344" s="12">
+        <v>12</v>
+      </c>
+      <c r="Q344" s="5"/>
+      <c r="R344" s="24"/>
+      <c r="S344" s="5"/>
+      <c r="T344" s="5">
+        <v>1098701781</v>
+      </c>
+      <c r="U344" s="5"/>
+    </row>
+    <row r="345" spans="1:21" ht="18" customHeight="1" thickBot="1">
+      <c r="A345" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B345" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C345" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="D345" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="E345" s="11">
+        <v>10</v>
+      </c>
+      <c r="F345" s="12">
+        <v>0</v>
+      </c>
+      <c r="G345" s="12">
+        <v>0</v>
+      </c>
+      <c r="H345" s="12">
+        <v>0</v>
+      </c>
+      <c r="I345" s="12">
+        <v>9</v>
+      </c>
+      <c r="J345" s="12">
+        <v>8</v>
+      </c>
+      <c r="K345" s="12">
+        <v>0</v>
+      </c>
+      <c r="L345" s="12">
+        <v>0</v>
+      </c>
+      <c r="M345" s="12">
+        <v>0</v>
+      </c>
+      <c r="N345" s="12">
+        <v>0</v>
+      </c>
+      <c r="O345" s="12">
+        <v>3</v>
+      </c>
+      <c r="P345" s="12">
+        <v>3</v>
+      </c>
+      <c r="Q345" s="5"/>
+      <c r="R345" s="24"/>
+      <c r="S345" s="5"/>
+      <c r="T345" s="5">
+        <v>4058800692</v>
+      </c>
+      <c r="U345" s="5"/>
+    </row>
+    <row r="346" spans="1:21" ht="18" customHeight="1" thickBot="1">
+      <c r="A346" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B346" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C346" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D346" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="E346" s="11">
+        <v>8</v>
+      </c>
+      <c r="F346" s="12">
+        <v>0</v>
+      </c>
+      <c r="G346" s="12">
+        <v>0</v>
+      </c>
+      <c r="H346" s="12">
+        <v>0</v>
+      </c>
+      <c r="I346" s="12">
+        <v>9</v>
+      </c>
+      <c r="J346" s="12">
+        <v>7</v>
+      </c>
+      <c r="K346" s="12">
+        <v>0</v>
+      </c>
+      <c r="L346" s="12">
+        <v>0</v>
+      </c>
+      <c r="M346" s="12">
+        <v>0</v>
+      </c>
+      <c r="N346" s="12">
+        <v>2</v>
+      </c>
+      <c r="O346" s="12">
+        <v>1</v>
+      </c>
+      <c r="P346" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q346" s="5"/>
+      <c r="R346" s="24"/>
+      <c r="S346" s="5"/>
+      <c r="T346" s="5">
+        <v>4178131466</v>
+      </c>
+      <c r="U346" s="5">
+        <v>2062110030416</v>
+      </c>
+    </row>
+    <row r="347" spans="1:21" ht="18" customHeight="1" thickBot="1">
+      <c r="A347" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B347" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C347" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="D347" s="7" t="s">
+        <v>879</v>
+      </c>
+      <c r="E347" s="11">
+        <v>5</v>
+      </c>
+      <c r="F347" s="12">
+        <v>0</v>
+      </c>
+      <c r="G347" s="12">
+        <v>0</v>
+      </c>
+      <c r="H347" s="12">
+        <v>0</v>
+      </c>
+      <c r="I347" s="12">
+        <v>10</v>
+      </c>
+      <c r="J347" s="12">
+        <v>4</v>
+      </c>
+      <c r="K347" s="12">
+        <v>0</v>
+      </c>
+      <c r="L347" s="12">
+        <v>0</v>
+      </c>
+      <c r="M347" s="12">
+        <v>0</v>
+      </c>
+      <c r="N347" s="12">
+        <v>2</v>
+      </c>
+      <c r="O347" s="12">
+        <v>1</v>
+      </c>
+      <c r="P347" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q347" s="5"/>
+      <c r="R347" s="24"/>
+      <c r="S347" s="5"/>
+      <c r="T347" s="5">
+        <v>6098192534</v>
+      </c>
+      <c r="U347" s="5">
+        <v>1942110104860</v>
+      </c>
+    </row>
+    <row r="348" spans="1:21" ht="18" customHeight="1" thickBot="1">
+      <c r="A348" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B348" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C348" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="D348" s="7" t="s">
+        <v>881</v>
+      </c>
+      <c r="E348" s="11">
+        <v>40</v>
+      </c>
+      <c r="F348" s="12">
+        <v>3</v>
+      </c>
+      <c r="G348" s="12">
+        <v>0</v>
+      </c>
+      <c r="H348" s="12">
+        <v>0</v>
+      </c>
+      <c r="I348" s="12">
+        <v>8</v>
+      </c>
+      <c r="J348" s="12">
+        <v>8</v>
+      </c>
+      <c r="K348" s="12">
+        <v>0</v>
+      </c>
+      <c r="L348" s="12">
+        <v>2</v>
+      </c>
+      <c r="M348" s="12">
+        <v>2</v>
+      </c>
+      <c r="N348" s="12">
+        <v>0</v>
+      </c>
+      <c r="O348" s="12">
+        <v>4</v>
+      </c>
+      <c r="P348" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q348" s="5"/>
+      <c r="R348" s="24"/>
+      <c r="S348" s="5"/>
+      <c r="T348" s="5">
+        <v>5028152906</v>
+      </c>
+      <c r="U348" s="5">
+        <v>1701110175283</v>
+      </c>
+    </row>
+    <row r="349" spans="1:21" ht="18" customHeight="1" thickBot="1">
+      <c r="A349" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B349" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C349" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="D349" s="18" t="s">
+        <v>908</v>
+      </c>
+      <c r="E349" s="11">
+        <v>17</v>
+      </c>
+      <c r="F349" s="12">
+        <v>0</v>
+      </c>
+      <c r="G349" s="12">
+        <v>4</v>
+      </c>
+      <c r="H349" s="12">
+        <v>0</v>
+      </c>
+      <c r="I349" s="12">
+        <v>6</v>
+      </c>
+      <c r="J349" s="12">
+        <v>2</v>
+      </c>
+      <c r="K349" s="12">
+        <v>0</v>
+      </c>
+      <c r="L349" s="12">
+        <v>0</v>
+      </c>
+      <c r="M349" s="12">
+        <v>0</v>
+      </c>
+      <c r="N349" s="12">
+        <v>2</v>
+      </c>
+      <c r="O349" s="12">
+        <v>2</v>
+      </c>
+      <c r="P349" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q349" s="5" t="s">
+        <v>953</v>
+      </c>
+      <c r="R349" s="24" t="s">
+        <v>925</v>
+      </c>
+      <c r="S349" s="5"/>
+      <c r="T349" s="5">
+        <v>2148737067</v>
+      </c>
+      <c r="U349" s="5">
+        <v>1101112808925</v>
+      </c>
+    </row>
+    <row r="350" spans="1:21" ht="18" customHeight="1" thickBot="1">
+      <c r="A350" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B350" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C350" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="D350" s="18" t="s">
+        <v>908</v>
+      </c>
+      <c r="E350" s="11">
+        <v>11</v>
+      </c>
+      <c r="F350" s="12">
+        <v>0</v>
+      </c>
+      <c r="G350" s="12">
+        <v>0</v>
+      </c>
+      <c r="H350" s="12">
+        <v>0</v>
+      </c>
+      <c r="I350" s="12">
+        <v>7</v>
+      </c>
+      <c r="J350" s="12">
+        <v>1</v>
+      </c>
+      <c r="K350" s="12">
+        <v>0</v>
+      </c>
+      <c r="L350" s="12">
+        <v>0</v>
+      </c>
+      <c r="M350" s="12">
+        <v>0</v>
+      </c>
+      <c r="N350" s="12">
+        <v>0</v>
+      </c>
+      <c r="O350" s="12">
+        <v>5</v>
+      </c>
+      <c r="P350" s="12">
+        <v>5</v>
+      </c>
+      <c r="Q350" s="5"/>
+      <c r="R350" s="24"/>
+      <c r="S350" s="5"/>
+      <c r="T350" s="5">
+        <v>2208794802</v>
+      </c>
+      <c r="U350" s="5">
+        <v>1101114285288</v>
+      </c>
+    </row>
+    <row r="351" spans="1:21" ht="18" customHeight="1" thickBot="1">
+      <c r="A351" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B351" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C351" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="D351" s="7" t="s">
+        <v>888</v>
+      </c>
+      <c r="E351" s="11">
+        <v>17</v>
+      </c>
+      <c r="F351" s="12">
+        <v>0</v>
+      </c>
+      <c r="G351" s="12">
+        <v>0</v>
+      </c>
+      <c r="H351" s="12">
+        <v>0</v>
+      </c>
+      <c r="I351" s="12">
+        <v>7</v>
+      </c>
+      <c r="J351" s="12">
+        <v>4</v>
+      </c>
+      <c r="K351" s="12">
+        <v>0</v>
+      </c>
+      <c r="L351" s="12">
+        <v>0</v>
+      </c>
+      <c r="M351" s="12">
+        <v>0</v>
+      </c>
+      <c r="N351" s="12">
+        <v>1</v>
+      </c>
+      <c r="O351" s="12">
+        <v>4</v>
+      </c>
+      <c r="P351" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q351" s="5"/>
+      <c r="R351" s="24"/>
+      <c r="S351" s="5"/>
+      <c r="T351" s="5">
+        <v>2208768963</v>
+      </c>
+      <c r="U351" s="5">
+        <v>1101113931113</v>
+      </c>
+    </row>
+    <row r="352" spans="1:21" ht="18" customHeight="1" thickBot="1">
+      <c r="A352" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B352" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C352" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="D352" s="7" t="s">
+        <v>892</v>
+      </c>
+      <c r="E352" s="11">
+        <v>13</v>
+      </c>
+      <c r="F352" s="12">
+        <v>0</v>
+      </c>
+      <c r="G352" s="12">
+        <v>0</v>
+      </c>
+      <c r="H352" s="12">
+        <v>0</v>
+      </c>
+      <c r="I352" s="12">
+        <v>9</v>
+      </c>
+      <c r="J352" s="12">
+        <v>3</v>
+      </c>
+      <c r="K352" s="12">
+        <v>0</v>
+      </c>
+      <c r="L352" s="12">
+        <v>0</v>
+      </c>
+      <c r="M352" s="12">
+        <v>0</v>
+      </c>
+      <c r="N352" s="12">
+        <v>1</v>
+      </c>
+      <c r="O352" s="12">
+        <v>4</v>
+      </c>
+      <c r="P352" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q352" s="5"/>
+      <c r="R352" s="24"/>
+      <c r="S352" s="5"/>
+      <c r="T352" s="5">
+        <v>2208644867</v>
+      </c>
+      <c r="U352" s="5">
+        <v>1101112585903</v>
+      </c>
+    </row>
+    <row r="353" spans="1:21" ht="18" customHeight="1" thickBot="1">
+      <c r="A353" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B353" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C353" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="D353" s="7" t="s">
+        <v>894</v>
+      </c>
+      <c r="E353" s="11">
+        <v>7</v>
+      </c>
+      <c r="F353" s="12">
+        <v>0</v>
+      </c>
+      <c r="G353" s="12">
+        <v>0</v>
+      </c>
+      <c r="H353" s="12">
+        <v>0</v>
+      </c>
+      <c r="I353" s="12">
+        <v>9</v>
+      </c>
+      <c r="J353" s="12">
+        <v>6</v>
+      </c>
+      <c r="K353" s="12">
+        <v>0</v>
+      </c>
+      <c r="L353" s="12">
+        <v>0</v>
+      </c>
+      <c r="M353" s="12">
+        <v>0</v>
+      </c>
+      <c r="N353" s="12">
+        <v>2</v>
+      </c>
+      <c r="O353" s="12">
+        <v>0</v>
+      </c>
+      <c r="P353" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q353" s="5"/>
+      <c r="R353" s="24"/>
+      <c r="S353" s="5"/>
+      <c r="T353" s="5">
+        <v>2158164599</v>
+      </c>
+      <c r="U353" s="5">
+        <v>1101111436884</v>
       </c>
     </row>
   </sheetData>
@@ -25551,12 +25426,37 @@
     <hyperlink ref="A326" r:id="rId325" xr:uid="{F3DF009C-A747-4DDD-BA7F-C90BDDC7DC38}"/>
     <hyperlink ref="A327" r:id="rId326" xr:uid="{093C7CBD-F8BB-4138-AEC9-58BB6E61DBAE}"/>
     <hyperlink ref="A328" r:id="rId327" xr:uid="{D0514595-5335-4EE0-91EF-66F88CB256B8}"/>
+    <hyperlink ref="A330" r:id="rId328" xr:uid="{838AEDCC-73A2-4B6E-A495-524ED8411FBC}"/>
+    <hyperlink ref="A331" r:id="rId329" xr:uid="{AD8AD7F3-65F5-42E2-937B-FBA9C4368792}"/>
+    <hyperlink ref="A332" r:id="rId330" xr:uid="{D5DDBAFF-63DA-4EBF-B3F2-70429C9C7330}"/>
+    <hyperlink ref="A333" r:id="rId331" xr:uid="{1CB54AC3-7E05-4087-967A-EFB659965711}"/>
+    <hyperlink ref="A334" r:id="rId332" xr:uid="{A5684E41-59E2-4FE0-919D-4ECB8B4B4438}"/>
+    <hyperlink ref="A335" r:id="rId333" xr:uid="{8924EF06-34B3-4998-AB02-05C802126FCF}"/>
+    <hyperlink ref="A336" r:id="rId334" xr:uid="{44DFBA65-1211-43E1-BEA8-D4E6134A9E12}"/>
+    <hyperlink ref="A337" r:id="rId335" xr:uid="{7302B480-3D04-4D47-871F-42F2A7AD8694}"/>
+    <hyperlink ref="A338" r:id="rId336" xr:uid="{C21F9252-0DC3-4802-8B0F-0EA19B4F263E}"/>
+    <hyperlink ref="A339" r:id="rId337" xr:uid="{166ABAF0-6698-4A2A-9F19-4B2DF063B2A2}"/>
+    <hyperlink ref="A340" r:id="rId338" xr:uid="{7EF56B22-112E-4D83-B2FF-7C0AC557989E}"/>
+    <hyperlink ref="A341" r:id="rId339" xr:uid="{CF5A1DF5-9CA2-4073-8110-30EEC23964BF}"/>
+    <hyperlink ref="A342" r:id="rId340" xr:uid="{6FC4B646-F658-43FE-B78E-CAF644FE7842}"/>
+    <hyperlink ref="A343" r:id="rId341" xr:uid="{DF964647-DAFD-49DF-804B-B1B45D8245BA}"/>
+    <hyperlink ref="A344" r:id="rId342" xr:uid="{3A1BAB5D-8C86-4225-B1A9-073CFC5F77A9}"/>
+    <hyperlink ref="A345" r:id="rId343" xr:uid="{017E470C-A3E6-4751-98D7-2A1E04C96776}"/>
+    <hyperlink ref="A346" r:id="rId344" xr:uid="{815159C2-BE06-4B0D-9580-FFDCE677B441}"/>
+    <hyperlink ref="A347" r:id="rId345" xr:uid="{EB9C1BEC-C87F-4F45-8CF8-16CFFDCE5D93}"/>
+    <hyperlink ref="A348" r:id="rId346" xr:uid="{C5467B16-3BAF-41A8-A7C2-BFD4821DA1EA}"/>
+    <hyperlink ref="A349" r:id="rId347" xr:uid="{900F0F2B-B19E-4D34-986D-C763E5131049}"/>
+    <hyperlink ref="A350" r:id="rId348" xr:uid="{1DFCCEF4-BDBB-435C-AE78-02A11D9C2112}"/>
+    <hyperlink ref="A351" r:id="rId349" xr:uid="{2BD834B1-E12B-43F9-9F6D-D7E435A586B7}"/>
+    <hyperlink ref="A352" r:id="rId350" xr:uid="{E03A9E7A-2055-4B17-A76B-7FABD6FC213E}"/>
+    <hyperlink ref="A353" r:id="rId351" xr:uid="{2C77A4EE-39A9-4AA0-90DC-0C8860321E7E}"/>
+    <hyperlink ref="A329" r:id="rId352" xr:uid="{C5808FED-A939-40F8-A724-DFB6A94DDC72}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD5ED62D-13F3-419B-A7A7-D8C3EFB12EB2}">
   <dimension ref="A1:U353"/>
   <sheetViews>
@@ -46979,7 +46879,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C1F134C-60D7-46B5-A06D-FFF2D75A5EA2}">
   <dimension ref="A1:B14"/>
   <sheetViews>
